--- a/json.xlsx
+++ b/json.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\IVE\HD\IVE\ITP4506 Human Computer Interaction &amp; GUI Programming\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/MyWebSite/HCI_Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18120" windowHeight="9285"/>
+    <workbookView xWindow="9700" yWindow="460" windowWidth="24540" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,12 +114,6 @@
     <t>img/8.jpg</t>
   </si>
   <si>
-    <t>img/9.jpg</t>
-  </si>
-  <si>
-    <t>img/10.jpg</t>
-  </si>
-  <si>
     <t>img/11.jpg</t>
   </si>
   <si>
@@ -150,13 +150,221 @@
   </si>
   <si>
     <t>Shure SE535 Limited Edition, in addition to eye-catching red appearance, the new version will switch to the new acoustic structure, so that some high-frequency part of the more prominent, compared to the traditional strong impression, high-frequency performance After the upgrade will be a new experience. Headset line, in line with the habits of users in Asia, the special version of the headset line will be adjusted to 1.16m, more convenient to use, but also to retain Kevlar reinforced fiber for protection.</t>
+  </si>
+  <si>
+    <t>ATH-E40</t>
+  </si>
+  <si>
+    <t>The ATH-E40 features specially designed housings that provide incredible isolation. The isolation – and the comfort – are enhanced by the four sizes of included silicone eartips (XS/S/M/L), which allow you to create a custom fit.</t>
+  </si>
+  <si>
+    <t>Audio-Technica</t>
+  </si>
+  <si>
+    <t>ATH-CKR10</t>
+  </si>
+  <si>
+    <t>The ATH-CKR10's unique push-pull driver system incorporates two 13mm drivers facing each other, generating phase-aligned audio signals that are mixed to compensate for each driver's infefficiencies, while providing an equal and tailored response without artificial colouration.</t>
+  </si>
+  <si>
+    <t>ATH-CKX7</t>
+  </si>
+  <si>
+    <t>Audio-Technica SonicFuel™ headphones are specifically designed for active, daily use, to power you forward by delivering extraordinary comfort, style and an immersive listening experience that never sounds artificial, processed or filtered. Just pure sonic goodness for the high-octane tempo of your life.</t>
+  </si>
+  <si>
+    <t>computer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/17.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/18.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/19.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/20.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/21.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/22.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/23.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/24.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch Bar and Touch ID Mac Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It’s faster and more powerful than before, yet remarkably thinner and lighter. It has the brightest, most colorful Mac notebook display ever. And it introduces the Touch Bar — a Multi-Touch enabled strip of glass built into the keyboard for instant access to the tools you want, right when you want them. </t>
+  </si>
+  <si>
+    <t>Underneath the sleek exterior, MacBook Air is packed with powerful components that give you smoother graphics, faster storage, and all-around serious performance.</t>
+  </si>
+  <si>
+    <t>MacBook Air</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/9.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/10.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP - ENVY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Intel Core i5 processor provides powerful performance when using your favorite programs and apps, and the 1TB hard drive lets you store plenty of digital files. This HP convertible laptop rotates a full 360 degrees for customized viewing of the 15.6-inch screen.</t>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take your projects or home entertainment wherever you go with this HP notebook. Store the latest movies on the 1TB hard drive and view them on the 17.3-inch backlit HD display. The 4GB of DDR4 RAM and a seventh-generation Intel Core i5 processor on this HP notebook handle multitasking efficiently.</t>
+  </si>
+  <si>
+    <t>HP - 17-X121DX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samsung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samsung - XE500C13-K02US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unleash the power of modern computing with this Samsung Chromebook laptop. It has all the space you need with the 11.6-inch screen, which ensures portability, and 4GB of RAM and an Intel Celeron processor lets you complete basic office tasks all day long. </t>
+  </si>
+  <si>
+    <t>Samsung - Notebook 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Satisfy your entertainment needs with this Samsung Notebook 7 Spin laptop. Watch HD movies and play 3-D games in video HDR mode for detail and texture that enhance your viewing experience. The NVIDIA GeForce 940MX graphics of this 15.6-inch Notebook 7 Spin laptop makes gaming and streaming movies more efficient without compromise.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lenovo - Ideapad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get everyday computing wherever you with this Lenovo Ideapad 11.6-inch laptop. It includes 32GB of flash storage so that you can store basic files, and 2GB of RAM makes cloud computing a breeze. It also includes a dual-core Intel Celeron processor and Wi-Fi for easy connectivity from this Lenovo Ideapad 11.6-inch laptop.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lenovo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lenovo - 100S-14IBR </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take this Lenovo Ideapad laptop with you on the road, and stay on top of work while keeping connected with clients and co-workers. Intel processing offers dependable speed for all of your programming, and Intel HD graphics provide stunning visuals. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engineering Tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EW Equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSS PROFESSIONAL HAND TAPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDGTOOLS TAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDGTools HBM Myford</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2" SHANK MODEL ENGINEERING TOOLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINGLE, TAPER, PLUG &amp; BOTTOMING ENGINEERING TOOLS MODEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apex precision piller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drill suit Model Engineer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model engineering tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set of tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Vintage BSW </t>
+  </si>
+  <si>
+    <t>Thread Die 1/8 To 1/2 Whitworth Model Engineer Workshop Vintage Tool</t>
+  </si>
+  <si>
+    <t>TAP WRENCHES</t>
+  </si>
+  <si>
+    <t>TAP WRENCHES/ HOLD UP TO 5/16 INCH SQUARE.</t>
+  </si>
+  <si>
+    <t>RDGTOOLS DEBURRING TOOL</t>
+  </si>
+  <si>
+    <t>DEBURRING TOOL WITH BLADES. DEBURRING TOOL AND 2 BLADES. OR SEE OUR OTHER 3700ENGINEERING TOOLS HERE.</t>
+  </si>
+  <si>
+    <t>10 x 1/2" Square Peices of Tool Steel</t>
+  </si>
+  <si>
+    <t>All have been ground to a shape, minimum length 2.1/2" up to about 4".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,6 +377,14 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -202,10 +418,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,23 +738,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="112" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
-    <col min="5" max="5" width="39.25" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -577,7 +795,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>990</v>
       </c>
       <c r="E2" t="s">
@@ -596,7 +814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -606,14 +824,14 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>990</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -625,21 +843,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1480</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>0.9</v>
@@ -647,154 +865,508 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>3600</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>3900</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>0.9</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>3200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
       <c r="G7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
+      <c r="D8" s="2">
+        <v>1700</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
       <c r="G8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
+      <c r="D9" s="2">
+        <v>800</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
       <c r="G9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2">
+        <v>15000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
       <c r="G10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
       <c r="G11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
       <c r="G12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9200</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
       <c r="G13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
       <c r="G14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2">
+        <v>12000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
       <c r="G15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9800</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
       <c r="G16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
       <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2">
         <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2">
+        <v>500</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="2">
+        <v>200</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2">
+        <v>800</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2">
+        <v>120</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1" display="model engineering tools"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>